--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6560316666666667</v>
+        <v>0.3807046666666667</v>
       </c>
       <c r="H2">
-        <v>1.968095</v>
+        <v>1.142114</v>
       </c>
       <c r="I2">
-        <v>0.4774442729587939</v>
+        <v>0.7882013480900447</v>
       </c>
       <c r="J2">
-        <v>0.4774442729587938</v>
+        <v>0.7882013480900447</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,60 +549,60 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.594558</v>
+        <v>0.07905266666666667</v>
       </c>
       <c r="N2">
-        <v>1.783674</v>
+        <v>0.237158</v>
       </c>
       <c r="O2">
-        <v>0.8826433864863581</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.882643386486358</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.39004887567</v>
+        <v>0.03009571911244445</v>
       </c>
       <c r="R2">
-        <v>3.51043988103</v>
+        <v>0.270861472012</v>
       </c>
       <c r="S2">
-        <v>0.4214130299428669</v>
+        <v>0.7882013480900447</v>
       </c>
       <c r="T2">
-        <v>0.4214130299428668</v>
+        <v>0.7882013480900447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.6560316666666667</v>
+        <v>0.1022996666666667</v>
       </c>
       <c r="H3">
-        <v>1.968095</v>
+        <v>0.306899</v>
       </c>
       <c r="I3">
-        <v>0.4774442729587939</v>
+        <v>0.2117986519099552</v>
       </c>
       <c r="J3">
-        <v>0.4774442729587938</v>
+        <v>0.2117986519099552</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,276 +611,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07905266666666666</v>
+        <v>0.07905266666666667</v>
       </c>
       <c r="N3">
         <v>0.237158</v>
       </c>
       <c r="O3">
-        <v>0.1173566135136419</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1173566135136419</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.05186105266777778</v>
+        <v>0.008087061449111112</v>
       </c>
       <c r="R3">
-        <v>0.4667494740099999</v>
+        <v>0.072783553042</v>
       </c>
       <c r="S3">
-        <v>0.05603124301592692</v>
+        <v>0.2117986519099552</v>
       </c>
       <c r="T3">
-        <v>0.0560312430159269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.3807046666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.142114</v>
-      </c>
-      <c r="I4">
-        <v>0.2770678185585858</v>
-      </c>
-      <c r="J4">
-        <v>0.2770678185585858</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.594558</v>
-      </c>
-      <c r="N4">
-        <v>1.783674</v>
-      </c>
-      <c r="O4">
-        <v>0.8826433864863581</v>
-      </c>
-      <c r="P4">
-        <v>0.882643386486358</v>
-      </c>
-      <c r="Q4">
-        <v>0.226351005204</v>
-      </c>
-      <c r="R4">
-        <v>2.037159046836</v>
-      </c>
-      <c r="S4">
-        <v>0.244552077658938</v>
-      </c>
-      <c r="T4">
-        <v>0.2445520776589379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.3807046666666667</v>
-      </c>
-      <c r="H5">
-        <v>1.142114</v>
-      </c>
-      <c r="I5">
-        <v>0.2770678185585858</v>
-      </c>
-      <c r="J5">
-        <v>0.2770678185585858</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.07905266666666666</v>
-      </c>
-      <c r="N5">
-        <v>0.237158</v>
-      </c>
-      <c r="O5">
-        <v>0.1173566135136419</v>
-      </c>
-      <c r="P5">
-        <v>0.1173566135136419</v>
-      </c>
-      <c r="Q5">
-        <v>0.03009571911244444</v>
-      </c>
-      <c r="R5">
-        <v>0.270861472012</v>
-      </c>
-      <c r="S5">
-        <v>0.03251574089964781</v>
-      </c>
-      <c r="T5">
-        <v>0.0325157408996478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3373123333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.011937</v>
-      </c>
-      <c r="I6">
-        <v>0.2454879084826204</v>
-      </c>
-      <c r="J6">
-        <v>0.2454879084826204</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.594558</v>
-      </c>
-      <c r="N6">
-        <v>1.783674</v>
-      </c>
-      <c r="O6">
-        <v>0.8826433864863581</v>
-      </c>
-      <c r="P6">
-        <v>0.882643386486358</v>
-      </c>
-      <c r="Q6">
-        <v>0.200551746282</v>
-      </c>
-      <c r="R6">
-        <v>1.804965716538</v>
-      </c>
-      <c r="S6">
-        <v>0.2166782788845533</v>
-      </c>
-      <c r="T6">
-        <v>0.2166782788845532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3373123333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.011937</v>
-      </c>
-      <c r="I7">
-        <v>0.2454879084826204</v>
-      </c>
-      <c r="J7">
-        <v>0.2454879084826204</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.07905266666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.237158</v>
-      </c>
-      <c r="O7">
-        <v>0.1173566135136419</v>
-      </c>
-      <c r="P7">
-        <v>0.1173566135136419</v>
-      </c>
-      <c r="Q7">
-        <v>0.02666543944955555</v>
-      </c>
-      <c r="R7">
-        <v>0.239988955046</v>
-      </c>
-      <c r="S7">
-        <v>0.02880962959806718</v>
-      </c>
-      <c r="T7">
-        <v>0.02880962959806718</v>
+        <v>0.2117986519099552</v>
       </c>
     </row>
   </sheetData>
